--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr-ckd-epi-2021.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr-ckd-epi-2021.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="643">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -487,7 +487,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo}
+    <t xml:space="preserve">Extension {workflow-supportingInfo|4.0.1}
 </t>
   </si>
   <si>
@@ -495,6 +495,10 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5</t>
@@ -511,10 +515,6 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5.id</t>
@@ -745,7 +745,7 @@
     <t>value-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value[x]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value%5Bx%5D}
 </t>
   </si>
   <si>
@@ -1267,7 +1267,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -1345,7 +1345,7 @@
     <t>performerFunction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-performerFunction}
+    <t xml:space="preserve">Extension {event-performerFunction|4.0.1}
 </t>
   </si>
   <si>
@@ -1435,25 +1435,6 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueRatio</t>
   </si>
   <si>
@@ -1464,22 +1445,6 @@
 </t>
   </si>
   <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueTime</t>
   </si>
   <si>
@@ -1520,30 +1485,14 @@
 </t>
   </si>
   <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/results-coded-values-laboratory-uv-ips</t>
@@ -2440,15 +2389,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2459,28 +2408,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.73046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3661,7 +3610,7 @@
         <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>146</v>
@@ -3687,13 +3636,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>84</v>
@@ -3715,13 +3664,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3781,7 +3730,7 @@
         <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>146</v>
@@ -6159,7 +6108,7 @@
         <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>146</v>
@@ -6279,7 +6228,7 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>146</v>
@@ -6399,7 +6348,7 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>146</v>
@@ -6459,7 +6408,7 @@
         <v>231</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6519,7 +6468,7 @@
         <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>146</v>
@@ -10287,7 +10236,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>84</v>
@@ -11264,19 +11213,19 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>443</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>429</v>
@@ -11337,39 +11286,39 @@
         <v>95</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>84</v>
@@ -11388,19 +11337,19 @@
         <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>429</v>
@@ -11461,39 +11410,39 @@
         <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>84</v>
@@ -11515,7 +11464,7 @@
         <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>426</v>
@@ -11611,13 +11560,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>84</v>
@@ -11639,7 +11588,7 @@
         <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>426</v>
@@ -11735,13 +11684,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>84</v>
@@ -11763,7 +11712,7 @@
         <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>426</v>
@@ -11859,13 +11808,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>84</v>
@@ -11884,19 +11833,19 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>429</v>
@@ -11957,39 +11906,39 @@
         <v>95</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>84</v>
@@ -12011,7 +11960,7 @@
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>426</v>
@@ -12052,7 +12001,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>84</v>
@@ -12105,10 +12054,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12134,16 +12083,16 @@
         <v>284</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>84</v>
@@ -12171,10 +12120,10 @@
         <v>344</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>84</v>
@@ -12192,7 +12141,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12201,7 +12150,7 @@
         <v>95</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>107</v>
@@ -12216,7 +12165,7 @@
         <v>138</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
@@ -12227,14 +12176,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12256,16 +12205,16 @@
         <v>284</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12293,10 +12242,10 @@
         <v>344</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>84</v>
@@ -12314,7 +12263,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12332,27 +12281,27 @@
         <v>84</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12375,19 +12324,19 @@
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>84</v>
@@ -12436,7 +12385,7 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12457,10 +12406,10 @@
         <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
@@ -12471,10 +12420,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12500,13 +12449,13 @@
         <v>284</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12532,13 +12481,13 @@
         <v>84</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>84</v>
@@ -12556,7 +12505,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12574,27 +12523,27 @@
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12620,16 +12569,16 @@
         <v>284</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
@@ -12639,7 +12588,7 @@
         <v>84</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>84</v>
@@ -12658,7 +12607,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>84</v>
@@ -12676,7 +12625,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -12697,10 +12646,10 @@
         <v>84</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>84</v>
@@ -12711,10 +12660,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12737,16 +12686,16 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12796,7 +12745,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -12814,27 +12763,27 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12857,16 +12806,16 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12916,7 +12865,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -12934,27 +12883,27 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12977,19 +12926,19 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
@@ -13038,7 +12987,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13050,7 +12999,7 @@
         <v>84</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>84</v>
@@ -13059,10 +13008,10 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
@@ -13073,10 +13022,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13191,10 +13140,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13311,14 +13260,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13340,10 +13289,10 @@
         <v>140</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>170</v>
@@ -13398,7 +13347,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13433,10 +13382,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13459,13 +13408,13 @@
         <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13516,7 +13465,7 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -13525,7 +13474,7 @@
         <v>95</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>107</v>
@@ -13537,10 +13486,10 @@
         <v>84</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>84</v>
@@ -13551,10 +13500,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13577,13 +13526,13 @@
         <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13634,7 +13583,7 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -13643,7 +13592,7 @@
         <v>95</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>107</v>
@@ -13655,10 +13604,10 @@
         <v>84</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>84</v>
@@ -13669,10 +13618,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13698,16 +13647,16 @@
         <v>284</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -13735,10 +13684,10 @@
         <v>119</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>84</v>
@@ -13756,7 +13705,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -13774,13 +13723,13 @@
         <v>84</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>84</v>
@@ -13791,10 +13740,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13820,16 +13769,16 @@
         <v>284</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -13854,13 +13803,13 @@
         <v>84</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>84</v>
@@ -13878,7 +13827,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
@@ -13896,13 +13845,13 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>84</v>
@@ -13913,10 +13862,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13939,17 +13888,17 @@
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
@@ -13998,7 +13947,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14022,7 +13971,7 @@
         <v>84</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>84</v>
@@ -14033,10 +13982,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14062,10 +14011,10 @@
         <v>160</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14116,7 +14065,7 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
@@ -14137,10 +14086,10 @@
         <v>84</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>84</v>
@@ -14151,10 +14100,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14177,16 +14126,16 @@
         <v>96</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14236,7 +14185,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14257,10 +14206,10 @@
         <v>84</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>84</v>
@@ -14271,10 +14220,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14297,16 +14246,16 @@
         <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14356,7 +14305,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14377,10 +14326,10 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>84</v>
@@ -14391,10 +14340,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14417,19 +14366,19 @@
         <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>84</v>
@@ -14478,7 +14427,7 @@
         <v>84</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -14499,10 +14448,10 @@
         <v>84</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>84</v>
@@ -14513,10 +14462,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14631,10 +14580,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14747,10 +14696,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>229</v>
@@ -14781,7 +14730,7 @@
         <v>231</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14841,7 +14790,7 @@
         <v>83</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>146</v>
@@ -14867,10 +14816,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14985,10 +14934,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15103,10 +15052,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15223,10 +15172,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15341,14 +15290,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15370,10 +15319,10 @@
         <v>140</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>170</v>
@@ -15428,7 +15377,7 @@
         <v>84</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>82</v>
@@ -15463,10 +15412,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15492,13 +15441,13 @@
         <v>284</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>314</v>
@@ -15526,13 +15475,13 @@
         <v>84</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>84</v>
@@ -15550,7 +15499,7 @@
         <v>84</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>95</v>
@@ -15568,7 +15517,7 @@
         <v>84</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>318</v>
@@ -15585,10 +15534,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15614,13 +15563,13 @@
         <v>425</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>429</v>
@@ -15670,7 +15619,7 @@
         <v>144</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>82</v>
@@ -15688,7 +15637,7 @@
         <v>84</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>433</v>
@@ -15705,10 +15654,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>437</v>
@@ -15736,13 +15685,13 @@
         <v>160</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>429</v>
@@ -15794,7 +15743,7 @@
         <v>84</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>82</v>
@@ -15812,7 +15761,7 @@
         <v>84</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>433</v>
@@ -15829,10 +15778,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>439</v>
@@ -15860,13 +15809,13 @@
         <v>440</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>429</v>
@@ -15918,7 +15867,7 @@
         <v>84</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>82</v>
@@ -15936,7 +15885,7 @@
         <v>84</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>433</v>
@@ -15953,10 +15902,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>442</v>
@@ -15978,19 +15927,19 @@
         <v>84</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>443</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>444</v>
+        <v>623</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>446</v>
+        <v>624</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>429</v>
@@ -16042,7 +15991,7 @@
         <v>84</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>82</v>
@@ -16051,39 +16000,39 @@
         <v>95</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>84</v>
+        <v>625</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>84</v>
@@ -16102,19 +16051,19 @@
         <v>84</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>453</v>
+        <v>623</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>455</v>
+        <v>624</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>429</v>
@@ -16166,7 +16115,7 @@
         <v>84</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>82</v>
@@ -16175,39 +16124,39 @@
         <v>95</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>84</v>
+        <v>625</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>84</v>
@@ -16229,16 +16178,16 @@
         <v>96</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>429</v>
@@ -16290,7 +16239,7 @@
         <v>84</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>82</v>
@@ -16308,7 +16257,7 @@
         <v>84</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>433</v>
@@ -16325,13 +16274,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>84</v>
@@ -16353,16 +16302,16 @@
         <v>96</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>429</v>
@@ -16414,7 +16363,7 @@
         <v>84</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>82</v>
@@ -16432,7 +16381,7 @@
         <v>84</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>433</v>
@@ -16449,13 +16398,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>84</v>
@@ -16477,16 +16426,16 @@
         <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>429</v>
@@ -16538,7 +16487,7 @@
         <v>84</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>82</v>
@@ -16556,7 +16505,7 @@
         <v>84</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>433</v>
@@ -16573,13 +16522,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>84</v>
@@ -16598,19 +16547,19 @@
         <v>84</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>470</v>
+        <v>623</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>472</v>
+        <v>624</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>429</v>
@@ -16662,7 +16611,7 @@
         <v>84</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>82</v>
@@ -16671,39 +16620,39 @@
         <v>95</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>84</v>
+        <v>625</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>84</v>
@@ -16725,16 +16674,16 @@
         <v>96</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>429</v>
@@ -16766,7 +16715,7 @@
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>84</v>
@@ -16784,7 +16733,7 @@
         <v>84</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>82</v>
@@ -16802,7 +16751,7 @@
         <v>84</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>433</v>
@@ -16819,10 +16768,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16848,16 +16797,16 @@
         <v>284</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>84</v>
@@ -16885,10 +16834,10 @@
         <v>344</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>84</v>
@@ -16906,7 +16855,7 @@
         <v>84</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>82</v>
@@ -16915,7 +16864,7 @@
         <v>95</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>107</v>
@@ -16930,7 +16879,7 @@
         <v>138</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>84</v>
@@ -16941,14 +16890,14 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16970,16 +16919,16 @@
         <v>284</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>84</v>
@@ -17007,10 +16956,10 @@
         <v>344</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>84</v>
@@ -17028,7 +16977,7 @@
         <v>84</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>82</v>
@@ -17046,27 +16995,27 @@
         <v>84</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17089,19 +17038,19 @@
         <v>84</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>84</v>
@@ -17150,7 +17099,7 @@
         <v>84</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>82</v>
@@ -17171,10 +17120,10 @@
         <v>84</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>84</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr-ckd-epi-2021.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr-ckd-epi-2021.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -396,7 +396,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -822,7 +822,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -851,7 +851,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -934,7 +934,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1124,7 +1124,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1169,7 +1169,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1517,7 +1517,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1549,7 +1549,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1608,7 +1608,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1687,7 +1687,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1767,7 +1767,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1817,7 +1817,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1850,7 +1850,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1909,7 +1909,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1997,7 +1997,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR 